--- a/demo/template.xlsx
+++ b/demo/template.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivahaev/Documents/golang/src/candy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/Developers/workspace/github/go-xlsx-templater/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4927B9A-072F-544B-A020-B450802C1D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -147,9 +156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -157,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -168,6 +177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,30 +467,34 @@
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="A6">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
